--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290E3412-8E42-4BBD-8D13-89D691BE2C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>int</t>
   </si>
@@ -55,6 +62,39 @@
     <t>TestAreaName0001</t>
   </si>
   <si>
+    <t>-50|-15371|1068||-492|-15953|1130||-471|-14422|1026</t>
+  </si>
+  <si>
+    <t>-2461|-11936|480||-2673|-11203|440||-1908|-12482|530</t>
+  </si>
+  <si>
+    <t>-2673|-11203|440||-2835|-10598|440||-3227|-10666|3400</t>
+  </si>
+  <si>
+    <t>-3797|-9219|690||-3811|-8544|908||-1747|-7508|844||-2399|-6110|882</t>
+  </si>
+  <si>
+    <t>-3090|-6200|990||-3533|-5161|1131||-4460|-3301|1337||-4038|-5173|1202</t>
+  </si>
+  <si>
+    <t>-858|-7036|714||-2389|-8190|940||-3963|-7967|1011</t>
+  </si>
+  <si>
+    <t>4092|-1276|647||4951|-226|962||-3373|-9083|731</t>
+  </si>
+  <si>
+    <t>4551|5857|1636||5564|4225|1684||5577|735|1317</t>
+  </si>
+  <si>
+    <t>1731|7838|1564||-66|7976|1553||6303|3548|1691</t>
+  </si>
+  <si>
+    <t>-11272|6585|3358||-9615|9185|3873||5035|5120|1652</t>
+  </si>
+  <si>
+    <t>-10249|441|2078||-8841|-1131|1679||-11098|1544|2448</t>
+  </si>
+  <si>
     <t>AreaName0001</t>
   </si>
   <si>
@@ -73,89 +113,402 @@
     <t>3006|-19105|1508</t>
   </si>
   <si>
-    <t>4092|-1276|647||4951|-226|962||-3373|-9083|731</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4551|5857|1636||5564|4225|1684||5577|735|1317</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1731|7838|1564||-66|7976|1553||6303|3548|1691</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-11272|6585|3358||-9615|9185|3873||5035|5120|1652</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-10249|441|2078||-8841|-1131|1679||-11098|1544|2448</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-50|-15371|1068||-492|-15953|1130||-471|-14422|1026</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3797|-9219|690||-3811|-8544|908||-1747|-7508|844||-2399|-6110|882</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3090|-6200|990||-3533|-5161|1131||-4460|-3301|1337||-4038|-5173|1202</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-858|-7036|714||-2389|-8190|940||-3963|-7967|1011</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2461|-11936|480||-2673|-11203|440||-1908|-12482|530</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2673|-11203|440||-2835|-10598|440||-3227|-10666|3400</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>Cowlevel001</t>
+  </si>
+  <si>
+    <t>506276.25|-15371|1068||506276.25|42784.48|46083.01||495329.25|43252.48|46083.01||497870.25|53525.48|46083.01||497870.25|53525.48|49234.01||503903.25|53525.48|49234.01||504647.25|47997.48|49003.01||499929.25|47997.48|49003.01</t>
+  </si>
+  <si>
+    <t>Cowlevel002</t>
+  </si>
+  <si>
+    <t>Cowlevel003</t>
+  </si>
+  <si>
+    <t>Cowlevel004</t>
+  </si>
+  <si>
+    <t>Cowlevel005</t>
+  </si>
+  <si>
+    <t>Cowlevel006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -163,17 +516,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -181,187 +776,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -375,7 +885,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -403,40 +913,170 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399945066682943"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{3A8F5873-6032-4FB4-99FC-23539F5AA27B}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{03C3174D-61CA-4D0A-9CF9-C6C99977A597}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -646,324 +1286,354 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.875" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="98.9583333333333" customWidth="1"/>
     <col min="4" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+    <row r="4" s="2" customFormat="1" spans="2:2">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" s="2" customFormat="1" spans="1:3">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:3">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:3">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:3">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:3">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:3">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12" s="2" customFormat="1" spans="1:6">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13" s="2" customFormat="1" spans="1:6">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" s="2" customFormat="1" spans="1:6">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15" s="2" customFormat="1" spans="1:6">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16" s="2" customFormat="1" spans="1:6">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17" s="2" customFormat="1" spans="1:6">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+    <row r="18" s="2" customFormat="1" spans="1:6">
+      <c r="A18" s="8">
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+    <row r="19" s="2" customFormat="1" ht="49.5" spans="1:6">
+      <c r="A19" s="8">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
+    <row r="20" s="2" customFormat="1" spans="1:2">
+      <c r="A20" s="8">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:2">
+      <c r="A21" s="8">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:2">
+      <c r="A22" s="8">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:2">
+      <c r="A23" s="8">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:2">
+      <c r="A24" s="8">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:2">
+      <c r="A25" s="8"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
+    <row r="26" s="2" customFormat="1" spans="1:2">
+      <c r="A26" s="8"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="6"/>
-    </row>
-    <row r="38" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="6"/>
-    </row>
-    <row r="39" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="6"/>
-    </row>
-    <row r="40" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="6"/>
-    </row>
-    <row r="41" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="6"/>
-    </row>
-    <row r="42" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6"/>
-    </row>
-    <row r="43" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="6"/>
-    </row>
-    <row r="44" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" s="2" customFormat="1" spans="1:1">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:1">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:1">
+      <c r="A29" s="8"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:1">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:1">
+      <c r="A31" s="8"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:1">
+      <c r="A32" s="8"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:1">
+      <c r="A33" s="8"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:1">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:1">
+      <c r="A35" s="8"/>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:1">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:1">
+      <c r="A37" s="8"/>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:1">
+      <c r="A38" s="8"/>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:1">
+      <c r="A39" s="8"/>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:1">
+      <c r="A40" s="8"/>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:1">
+      <c r="A41" s="8"/>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:1">
+      <c r="A42" s="8"/>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="1:1">
+      <c r="A43" s="8"/>
+    </row>
+    <row r="44" s="2" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>int</t>
   </si>
@@ -116,22 +116,43 @@
     <t>Cowlevel001</t>
   </si>
   <si>
-    <t>506276.25|-15371|1068||506276.25|42784.48|46083.01||495329.25|43252.48|46083.01||497870.25|53525.48|46083.01||497870.25|53525.48|49234.01||503903.25|53525.48|49234.01||504647.25|47997.48|49003.01||499929.25|47997.48|49003.01</t>
+    <t>506276.25|42784.48|46083.01||495329.25|43252.48|46083.01||497870.25|53525.48|46083.01||497870.25|53525.48|47007||503903.25|53525.48|47007||504647.25|47997.48|47007||499929.25|47997.48|47007</t>
   </si>
   <si>
     <t>Cowlevel002</t>
   </si>
   <si>
+    <t>598563.75|594154.88|7143.97||602921.75|595009.88|7143.97||602921.75|595009.88|7851.97||602921.75|601241.88|7851.97||598241.75|602673.88|7851.97||598241.75|594819.88|7851.97||602921.75|600363.88|7295.97</t>
+  </si>
+  <si>
     <t>Cowlevel003</t>
   </si>
   <si>
+    <t>498910.44|46868.74|45986||496482.44|48743.74|45986||498294.44|55570.74|45986||499992.44|56135.74|45986||499992.44|56135.74|46753.00||499228.44|47348.74|46753||496626.44|48303.74|46753||498189.44|55497.74|46424</t>
+  </si>
+  <si>
     <t>Cowlevel004</t>
   </si>
   <si>
+    <t>97705.11|1001785.63|6204.8||97705.11|995826.63|6204.8||101330.11|995826.63|6204.8||101330.11|1001359.63|6204.80||101330.11|1001359.63|6911.80||97885.11|1001359.63|6911.80||97885.11|996353.63|6911.80||101778.11|996223.63|6911.80</t>
+  </si>
+  <si>
     <t>Cowlevel005</t>
   </si>
   <si>
+    <t>98879.05|1000148.06|10082||98879.05|997982.06|10082||100784.05|997982.06|10082||100186.05|999942.06|10082||99185.45|999750.75|10589||99239.05|998549.06|10590||99851.05|998549.06|10590||99851.05|999709.06|10590</t>
+  </si>
+  <si>
     <t>Cowlevel006</t>
+  </si>
+  <si>
+    <t>1010497.13|18739.56|4593.87||1006911.13|16723.56|4593.87||1004790.13|19763.56|4593.87||1006629.13|19763.56|5473.87||1009839.13|18905.56|5473.87||1007139.13|17599.56|5473.87</t>
+  </si>
+  <si>
+    <t>Cowlevel007</t>
+  </si>
+  <si>
+    <t>8978.4|229.39|296699.97||5201.4|229.39|296699.97||5201.4|5546.39|296699.97||6494.4|5546.39|296699.97||6494.4|5037.39|297305.97||6494.4|1696.39|297305.97||5428.4|3174.39|297305.97</t>
   </si>
 </sst>
 </file>
@@ -144,7 +165,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -153,12 +174,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -617,148 +632,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -776,10 +791,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1052,7 +1067,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{3A8F5873-6032-4FB4-99FC-23539F5AA27B}">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{8E19E395-D54C-409B-98D3-2393F0804047}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1061,7 +1076,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{03C3174D-61CA-4D0A-9CF9-C6C99977A597}">
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{E14272A0-B37D-4031-840A-CD97D57AD41B}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1294,8 +1309,8 @@
   <sheetPr/>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1518,7 +1533,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="49.5" spans="1:6">
+    <row r="19" s="2" customFormat="1" ht="33" spans="1:6">
       <c r="A19" s="8">
         <v>15</v>
       </c>
@@ -1532,49 +1547,71 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:2">
+    <row r="20" s="2" customFormat="1" spans="1:3">
       <c r="A20" s="8">
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:2">
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:3">
       <c r="A21" s="8">
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:2">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:3">
       <c r="A22" s="8">
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:3">
       <c r="A23" s="8">
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:3">
       <c r="A24" s="8">
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:3">
+      <c r="A25" s="8">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:2">
       <c r="A26" s="8"/>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -116,7 +116,7 @@
     <t>Cowlevel001</t>
   </si>
   <si>
-    <t>506276.25|42784.48|46083.01||495329.25|43252.48|46083.01||497870.25|53525.48|46083.01||497870.25|53525.48|47007||503903.25|53525.48|47007||504647.25|47997.48|47007||499929.25|47997.48|47007</t>
+    <t>200239.58|99256.01|265.78||200851.58|99965.01|265.78||200738.58|101180.01|265.78||200609.58|100067.01|863.78</t>
   </si>
   <si>
     <t>Cowlevel002</t>
@@ -1067,7 +1067,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{8E19E395-D54C-409B-98D3-2393F0804047}">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{BBCF855B-2181-4939-93EE-4D2B8714BBB9}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1076,7 +1076,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{E14272A0-B37D-4031-840A-CD97D57AD41B}">
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{A375437C-D222-4267-9F7B-98CF17ED6753}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1309,8 +1309,8 @@
   <sheetPr/>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1533,7 +1533,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="33" spans="1:6">
+    <row r="19" s="2" customFormat="1" spans="1:6">
       <c r="A19" s="8">
         <v>15</v>
       </c>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Constant" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <externalReferences>
+    <externalReference r:id="rId1"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="MaxCount" hidden="0">Constant!$B$1</definedName>
+  </definedNames>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>int</t>
   </si>
@@ -38,22 +31,37 @@
     <t>int[][]</t>
   </si>
   <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>name_trs</t>
+  </si>
+  <si>
     <t>points</t>
   </si>
   <si>
-    <t>区域 ID</t>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">区域 ID</t>
   </si>
   <si>
     <t>名称</t>
   </si>
   <si>
+    <t xml:space="preserve">VIEW_ONLY 不要更改或使用此列</t>
+  </si>
+  <si>
     <t>点集</t>
+  </si>
+  <si>
+    <t>是否构成排序后的非凸包</t>
   </si>
   <si>
     <t>Language</t>
@@ -154,179 +162,160 @@
   <si>
     <t>8978.4|229.39|296699.97||5201.4|229.39|296699.97||5201.4|5546.39|296699.97||6494.4|5546.39|296699.97||6494.4|5037.39|297305.97||6494.4|1696.39|297305.97||5428.4|3174.39|297305.97</t>
   </si>
+  <si>
+    <t>MaxLanItemCount</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="160" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="161" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="162" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="163" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <sz val="11.000000"/>
+      <color indexed="4"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <sz val="11.000000"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <sz val="11.000000"/>
+      <color indexed="2"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="18.000000"/>
       <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="15.000000"/>
       <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="13.000000"/>
       <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <sz val="11.000000"/>
+      <color indexed="65"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.000000"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.000000"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
     </font>
   </fonts>
   <fills count="33">
@@ -338,198 +327,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79998168889431398"/>
+        <bgColor theme="4" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.59999389629810496"/>
+        <bgColor theme="4" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.39997558519241899"/>
+        <bgColor theme="4" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.79998168889431398"/>
+        <bgColor theme="5" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.59999389629810496"/>
+        <bgColor theme="5" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.39997558519241899"/>
+        <bgColor theme="5" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.79998168889431398"/>
+        <bgColor theme="6" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.59999389629810496"/>
+        <bgColor theme="6" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.39997558519241899"/>
+        <bgColor theme="6" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="7" tint="0.79998168889431398"/>
+        <bgColor theme="7" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="7" tint="0.59999389629810496"/>
+        <bgColor theme="7" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="7" tint="0.39997558519241899"/>
+        <bgColor theme="7" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.79998168889431398"/>
+        <bgColor theme="8" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.59999389629810496"/>
+        <bgColor theme="8" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.39997558519241899"/>
+        <bgColor theme="8" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.79998168889431398"/>
+        <bgColor theme="9" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.59999389629810496"/>
+        <bgColor theme="9" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.39997558519241899"/>
+        <bgColor theme="9" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="9">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -544,25 +533,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -577,7 +566,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -592,7 +581,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="double">
@@ -607,202 +596,206 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="161" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="162" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="163" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="0" applyFill="1" applyBorder="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="7" fillId="0" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="8" fillId="0" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="9" fillId="0" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="10" fillId="3" borderId="4" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="11" fillId="4" borderId="5" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="12" fillId="4" borderId="4" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="13" fillId="5" borderId="6" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="14" fillId="0" borderId="7" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="15" fillId="0" borderId="8" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="16" fillId="6" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="17" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="18" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="19" fillId="9" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="10" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="11" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="19" fillId="12" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="19" fillId="13" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="14" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="15" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="19" fillId="16" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="19" fillId="17" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="18" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="19" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="19" fillId="20" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="19" fillId="21" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="22" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="23" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="19" fillId="24" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="19" fillId="25" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="26" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="27" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="19" fillId="28" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="19" fillId="29" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="30" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="31" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="19" fillId="32" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -857,50 +850,30 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799951170384838"/>
-          <bgColor theme="4" tint="0.799951170384838"/>
+          <fgColor theme="4" tint="0.79995117038483798"/>
+          <bgColor theme="4" tint="0.79995117038483798"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799951170384838"/>
-          <bgColor theme="4" tint="0.799951170384838"/>
+          <fgColor theme="4" tint="0.79995117038483798"/>
+          <bgColor theme="4" tint="0.79995117038483798"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -909,6 +882,27 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="none"/>
+        <diagonal style="none"/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -927,6 +921,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
+        <diagonal style="none"/>
         <horizontal style="thin">
           <color theme="4" tint="0.399945066682943"/>
         </horizontal>
@@ -935,36 +930,106 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799951170384838"/>
-          <bgColor theme="4" tint="0.799951170384838"/>
+          <fgColor theme="4" tint="0.79995117038483798"/>
+          <bgColor theme="4" tint="0.79995117038483798"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483798"/>
+          <bgColor theme="4" tint="0.79995117038483798"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
       <border>
-        <left/>
-        <right/>
-        <top/>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
         <bottom style="thin">
           <color theme="4" tint="0.399945066682943"/>
         </bottom>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <diagonal style="none"/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799951170384838"/>
-          <bgColor theme="4" tint="0.799951170384838"/>
+          <fgColor theme="4" tint="0.79995117038483798"/>
+          <bgColor theme="4" tint="0.79995117038483798"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
         <bottom style="thin">
           <color theme="4" tint="0.399945066682943"/>
         </bottom>
+        <diagonal style="none"/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483798"/>
+          <bgColor theme="4" tint="0.79995117038483798"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+        <diagonal style="none"/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483798"/>
+          <bgColor theme="4" tint="0.79995117038483798"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -974,119 +1039,55 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.399945066682943"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799951170384838"/>
-          <bgColor theme="4" tint="0.799951170384838"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799951170384838"/>
-          <bgColor theme="4" tint="0.799951170384838"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799951170384838"/>
-          <bgColor theme="4" tint="0.799951170384838"/>
+          <fgColor theme="4" tint="0.79995117038483798"/>
+          <bgColor theme="4" tint="0.79995117038483798"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
+        <left style="none"/>
+        <right style="none"/>
         <top style="thin">
           <color theme="4" tint="0.399945066682943"/>
         </top>
         <bottom style="thin">
           <color theme="4" tint="0.399945066682943"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799951170384838"/>
-          <bgColor theme="4" tint="0.799951170384838"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.399945066682943"/>
-        </bottom>
+        <diagonal style="none"/>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{BBCF855B-2181-4939-93EE-4D2B8714BBB9}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7">
+      <tableStyleElement type="firstColumn" size="1" dxfId="0"/>
+      <tableStyleElement type="firstColumnStripe" size="1" dxfId="1"/>
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
+      <tableStyleElement type="headerRow" size="1" dxfId="3"/>
+      <tableStyleElement type="lastColumn" size="1" dxfId="4"/>
+      <tableStyleElement type="totalRow" size="1" dxfId="5"/>
+      <tableStyleElement type="wholeTable" size="1" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{A375437C-D222-4267-9F7B-98CF17ED6753}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10">
+      <tableStyleElement type="firstColumnStripe" size="1" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="8"/>
+      <tableStyleElement type="firstRowSubheading" size="1" dxfId="9"/>
+      <tableStyleElement type="firstSubtotalRow" size="1" dxfId="10"/>
+      <tableStyleElement type="headerRow" size="1" dxfId="11"/>
+      <tableStyleElement type="pageFieldLabels" size="1" dxfId="12"/>
+      <tableStyleElement type="pageFieldValues" size="1" dxfId="13"/>
+      <tableStyleElement type="secondRowSubheading" size="1" dxfId="14"/>
+      <tableStyleElement type="secondSubtotalRow" size="1" dxfId="15"/>
+      <tableStyleElement type="totalRow" size="1" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1097,8 +1098,323 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="D1" t="str">
+            <v>string</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D1" t="str">
+            <v>string</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1305,376 +1621,3330 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
+    <sheetView topLeftCell="A1" zoomScale="120" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C21" activeCellId="0" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="40.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="98.9583333333333" customWidth="1"/>
-    <col min="4" max="6" width="10.875" customWidth="1"/>
+    <col customWidth="1" min="2" max="3" style="1" width="40.625"/>
+    <col customWidth="1" min="4" max="4" width="120.625"/>
+    <col customWidth="1" min="5" max="5" width="10.625"/>
+    <col customWidth="1" min="6" max="7" width="10.875"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" s="1" customFormat="1">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B5,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" s="1" customFormat="1">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B6,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" s="1" customFormat="1">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B7,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" s="1" customFormat="1">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B8,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" s="1" customFormat="1">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B9,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" s="1" customFormat="1">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B10,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" s="1" customFormat="1">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B11,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" s="1" customFormat="1">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="2:2">
-      <c r="B4" s="2" t="s">
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B12,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" s="1" customFormat="1">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B13,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" s="1" customFormat="1">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B14,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" s="1" customFormat="1">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B15,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" s="1" customFormat="1">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:3">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B16,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" s="1" customFormat="1">
+      <c r="A17" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:3">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B17,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" s="1" customFormat="1">
+      <c r="A18" s="9">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:3">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B18,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" s="1" customFormat="1">
+      <c r="A19" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:3">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B19,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" s="1" customFormat="1">
+      <c r="A20" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:3">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B20,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1">
+      <c r="A21" s="9">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:6">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B21,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1">
+      <c r="A22" s="9">
         <v>18</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:6">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B22,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1">
+      <c r="A23" s="9">
         <v>19</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:6">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B23,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1">
+      <c r="A24" s="9">
         <v>20</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:6">
-      <c r="A15" s="2">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B24,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1">
+      <c r="A25" s="9">
         <v>21</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:6">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:6">
-      <c r="A17" s="2">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:6">
-      <c r="A18" s="8">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:6">
-      <c r="A19" s="8">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:3">
-      <c r="A20" s="8">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:3">
-      <c r="A21" s="8">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:3">
-      <c r="A22" s="8">
-        <v>18</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:3">
-      <c r="A23" s="8">
-        <v>19</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:3">
-      <c r="A24" s="8">
-        <v>20</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:3">
-      <c r="A25" s="8">
-        <v>21</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:1">
-      <c r="A27" s="8"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="1:1">
-      <c r="A29" s="8"/>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="1:1">
-      <c r="A30" s="8"/>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="1:1">
-      <c r="A31" s="8"/>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:1">
-      <c r="A32" s="8"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:1">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="1:1">
-      <c r="A34" s="8"/>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:1">
-      <c r="A35" s="8"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:1">
-      <c r="A36" s="8"/>
-    </row>
-    <row r="37" s="2" customFormat="1" spans="1:1">
-      <c r="A37" s="8"/>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="1:1">
-      <c r="A38" s="8"/>
-    </row>
-    <row r="39" s="2" customFormat="1" spans="1:1">
-      <c r="A39" s="8"/>
-    </row>
-    <row r="40" s="2" customFormat="1" spans="1:1">
-      <c r="A40" s="8"/>
-    </row>
-    <row r="41" s="2" customFormat="1" spans="1:1">
-      <c r="A41" s="8"/>
-    </row>
-    <row r="42" s="2" customFormat="1" spans="1:1">
-      <c r="A42" s="8"/>
-    </row>
-    <row r="43" s="2" customFormat="1" spans="1:1">
-      <c r="A43" s="8"/>
-    </row>
-    <row r="44" s="2" customFormat="1"/>
+      <c r="B25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B25,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B26,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1">
+      <c r="A27" s="9"/>
+      <c r="C27" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B27,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1">
+      <c r="A28" s="9"/>
+      <c r="C28" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B28,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1">
+      <c r="A29" s="9"/>
+      <c r="C29" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B29,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1">
+      <c r="A30" s="9"/>
+      <c r="C30" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B30,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1">
+      <c r="A31" s="9"/>
+      <c r="C31" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B31,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1">
+      <c r="A32" s="9"/>
+      <c r="C32" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B32,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1">
+      <c r="A33" s="9"/>
+      <c r="C33" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B33,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1">
+      <c r="A34" s="9"/>
+      <c r="C34" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B34,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1">
+      <c r="A35" s="9"/>
+      <c r="C35" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B35,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1">
+      <c r="A36" s="9"/>
+      <c r="C36" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B36,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1">
+      <c r="A37" s="9"/>
+      <c r="C37" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B37,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1">
+      <c r="A38" s="9"/>
+      <c r="C38" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B38,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1">
+      <c r="A39" s="9"/>
+      <c r="C39" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B39,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1">
+      <c r="A40" s="9"/>
+      <c r="C40" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B40,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1">
+      <c r="A41" s="9"/>
+      <c r="C41" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B41,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1">
+      <c r="A42" s="9"/>
+      <c r="C42" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B42,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1">
+      <c r="A43" s="9"/>
+      <c r="C43" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B43,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1">
+      <c r="C44" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B44,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" ht="15">
+      <c r="C45" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B45,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" ht="15">
+      <c r="C46" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B46,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" ht="15">
+      <c r="C47" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B47,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" ht="15">
+      <c r="C48" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B48,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" ht="15">
+      <c r="C49" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B49,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" ht="15">
+      <c r="C50" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B50,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" ht="15">
+      <c r="C51" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B51,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" ht="15">
+      <c r="C52" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B52,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" ht="15">
+      <c r="C53" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B53,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" ht="15">
+      <c r="C54" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B54,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" ht="15">
+      <c r="C55" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B55,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" ht="15">
+      <c r="C56" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B56,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" ht="15">
+      <c r="C57" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B57,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" ht="15">
+      <c r="C58" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B58,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" ht="15">
+      <c r="C59" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B59,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" ht="15">
+      <c r="C60" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B60,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" ht="15">
+      <c r="C61" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B61,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" ht="15">
+      <c r="C62" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B62,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" ht="15">
+      <c r="C63" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B63,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" ht="15">
+      <c r="C64" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B64,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" ht="15">
+      <c r="C65" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B65,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" ht="15">
+      <c r="C66" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B66,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" ht="15">
+      <c r="C67" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B67,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" ht="15">
+      <c r="C68" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B68,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" ht="15">
+      <c r="C69" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B69,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" ht="15">
+      <c r="C70" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B70,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" ht="15">
+      <c r="C71" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B71,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" ht="15">
+      <c r="C72" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B72,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" ht="15">
+      <c r="C73" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B73,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" ht="15">
+      <c r="C74" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B74,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" ht="15">
+      <c r="C75" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B75,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" ht="15">
+      <c r="C76" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B76,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" ht="15">
+      <c r="C77" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B77,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" ht="15">
+      <c r="C78" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B78,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" ht="15">
+      <c r="C79" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B79,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" ht="15">
+      <c r="C80" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B80,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" ht="15">
+      <c r="C81" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B81,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" ht="15">
+      <c r="C82" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B82,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" ht="15">
+      <c r="C83" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B83,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" ht="15">
+      <c r="C84" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B84,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" ht="15">
+      <c r="C85" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B85,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" ht="15">
+      <c r="C86" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B86,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" ht="15">
+      <c r="C87" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B87,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" ht="15">
+      <c r="C88" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B88,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" ht="15">
+      <c r="C89" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B89,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" ht="15">
+      <c r="C90" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B90,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" ht="15">
+      <c r="C91" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B91,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" ht="15">
+      <c r="C92" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B92,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" ht="15">
+      <c r="C93" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B93,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" ht="15">
+      <c r="C94" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B94,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" ht="15">
+      <c r="C95" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B95,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" ht="15">
+      <c r="C96" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B96,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" ht="15">
+      <c r="C97" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B97,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" ht="15">
+      <c r="C98" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B98,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" ht="15">
+      <c r="C99" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B99,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" ht="15">
+      <c r="C100" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B100,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" ht="15">
+      <c r="C101" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B101,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" ht="15">
+      <c r="C102" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B102,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" ht="15">
+      <c r="C103" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B103,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" ht="15">
+      <c r="C104" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B104,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" ht="15">
+      <c r="C105" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B105,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" ht="15">
+      <c r="C106" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B106,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" ht="15">
+      <c r="C107" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B107,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" ht="15">
+      <c r="C108" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B108,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" ht="15">
+      <c r="C109" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B109,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" ht="15">
+      <c r="C110" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B110,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" ht="15">
+      <c r="C111" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B111,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" ht="15">
+      <c r="C112" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B112,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" ht="15">
+      <c r="C113" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B113,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" ht="15">
+      <c r="C114" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B114,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" ht="15">
+      <c r="C115" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B115,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" ht="15">
+      <c r="C116" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B116,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" ht="15">
+      <c r="C117" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B117,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" ht="15">
+      <c r="C118" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B118,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" ht="15">
+      <c r="C119" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B119,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" ht="15">
+      <c r="C120" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B120,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" ht="15">
+      <c r="C121" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B121,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" ht="15">
+      <c r="C122" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B122,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" ht="15">
+      <c r="C123" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B123,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" ht="15">
+      <c r="C124" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B124,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" ht="15">
+      <c r="C125" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B125,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" ht="15">
+      <c r="C126" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B126,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" ht="15">
+      <c r="C127" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B127,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" ht="15">
+      <c r="C128" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B128,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" ht="15">
+      <c r="C129" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B129,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" ht="15">
+      <c r="C130" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B130,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" ht="15">
+      <c r="C131" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B131,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" ht="15">
+      <c r="C132" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B132,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" ht="15">
+      <c r="C133" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B133,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" ht="15">
+      <c r="C134" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B134,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" ht="15">
+      <c r="C135" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B135,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" ht="15">
+      <c r="C136" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B136,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" ht="15">
+      <c r="C137" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B137,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" ht="15">
+      <c r="C138" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B138,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" ht="15">
+      <c r="C139" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B139,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" ht="15">
+      <c r="C140" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B140,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" ht="15">
+      <c r="C141" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B141,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" ht="15">
+      <c r="C142" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B142,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" ht="15">
+      <c r="C143" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B143,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" ht="15">
+      <c r="C144" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B144,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" ht="15">
+      <c r="C145" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B145,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" ht="15">
+      <c r="C146" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B146,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" ht="15">
+      <c r="C147" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B147,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" ht="15">
+      <c r="C148" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B148,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" ht="15">
+      <c r="C149" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B149,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" ht="15">
+      <c r="C150" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B150,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" ht="15">
+      <c r="C151" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B151,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" ht="15">
+      <c r="C152" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B152,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" ht="15">
+      <c r="C153" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B153,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" ht="15">
+      <c r="C154" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B154,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" ht="15">
+      <c r="C155" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B155,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" ht="15">
+      <c r="C156" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B156,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" ht="15">
+      <c r="C157" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B157,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" ht="15">
+      <c r="C158" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B158,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" ht="15">
+      <c r="C159" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B159,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" ht="15">
+      <c r="C160" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B160,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" ht="15">
+      <c r="C161" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B161,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" ht="15">
+      <c r="C162" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B162,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" ht="15">
+      <c r="C163" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B163,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" ht="15">
+      <c r="C164" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B164,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" ht="15">
+      <c r="C165" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B165,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" ht="15">
+      <c r="C166" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B166,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" ht="15">
+      <c r="C167" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B167,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" ht="15">
+      <c r="C168" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B168,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" ht="15">
+      <c r="C169" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B169,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" ht="15">
+      <c r="C170" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B170,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" ht="15">
+      <c r="C171" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B171,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" ht="15">
+      <c r="C172" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B172,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" ht="15">
+      <c r="C173" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B173,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" ht="15">
+      <c r="C174" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B174,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" ht="15">
+      <c r="C175" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B175,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" ht="15">
+      <c r="C176" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B176,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" ht="15">
+      <c r="C177" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B177,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" ht="15">
+      <c r="C178" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B178,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" ht="15">
+      <c r="C179" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B179,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" ht="15">
+      <c r="C180" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B180,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" ht="15">
+      <c r="C181" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B181,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" ht="15">
+      <c r="C182" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B182,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" ht="15">
+      <c r="C183" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B183,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" ht="15">
+      <c r="C184" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B184,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" ht="15">
+      <c r="C185" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B185,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" ht="15">
+      <c r="C186" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B186,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" ht="15">
+      <c r="C187" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B187,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" ht="15">
+      <c r="C188" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B188,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" ht="15">
+      <c r="C189" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B189,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" ht="15">
+      <c r="C190" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B190,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" ht="15">
+      <c r="C191" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B191,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" ht="15">
+      <c r="C192" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B192,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" ht="15">
+      <c r="C193" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B193,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" ht="15">
+      <c r="C194" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B194,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" ht="15">
+      <c r="C195" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B195,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" ht="15">
+      <c r="C196" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B196,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" ht="15">
+      <c r="C197" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B197,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" ht="15">
+      <c r="C198" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B198,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" ht="15">
+      <c r="C199" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B199,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" ht="15">
+      <c r="C200" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B200,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" ht="15">
+      <c r="C201" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B201,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" ht="15">
+      <c r="C202" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B202,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" ht="15">
+      <c r="C203" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B203,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" ht="15">
+      <c r="C204" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B204,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" ht="15">
+      <c r="C205" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B205,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" ht="15">
+      <c r="C206" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B206,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" ht="15">
+      <c r="C207" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B207,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" ht="15">
+      <c r="C208" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B208,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" ht="15">
+      <c r="C209" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B209,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" ht="15">
+      <c r="C210" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B210,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" ht="15">
+      <c r="C211" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B211,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" ht="15">
+      <c r="C212" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B212,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" ht="15">
+      <c r="C213" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B213,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" ht="15">
+      <c r="C214" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B214,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" ht="15">
+      <c r="C215" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B215,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" ht="15">
+      <c r="C216" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B216,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" ht="15">
+      <c r="C217" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B217,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" ht="15">
+      <c r="C218" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B218,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" ht="15">
+      <c r="C219" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B219,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" ht="15">
+      <c r="C220" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B220,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" ht="15">
+      <c r="C221" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B221,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" ht="15">
+      <c r="C222" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B222,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" ht="15">
+      <c r="C223" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B223,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" ht="15">
+      <c r="C224" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B224,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" ht="15">
+      <c r="C225" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B225,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" ht="15">
+      <c r="C226" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B226,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" ht="15">
+      <c r="C227" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B227,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" ht="15">
+      <c r="C228" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B228,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" ht="15">
+      <c r="C229" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B229,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" ht="15">
+      <c r="C230" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B230,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" ht="15">
+      <c r="C231" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B231,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" ht="15">
+      <c r="C232" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B232,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" ht="15">
+      <c r="C233" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B233,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" ht="15">
+      <c r="C234" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B234,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" ht="15">
+      <c r="C235" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B235,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" ht="15">
+      <c r="C236" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B236,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" ht="15">
+      <c r="C237" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B237,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" ht="15">
+      <c r="C238" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B238,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" ht="15">
+      <c r="C239" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B239,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" ht="15">
+      <c r="C240" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B240,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" ht="15">
+      <c r="C241" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B241,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" ht="15">
+      <c r="C242" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B242,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" ht="15">
+      <c r="C243" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B243,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" ht="15">
+      <c r="C244" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B244,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" ht="15">
+      <c r="C245" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B245,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" ht="15">
+      <c r="C246" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B246,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" ht="15">
+      <c r="C247" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B247,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" ht="15">
+      <c r="C248" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B248,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" ht="15">
+      <c r="C249" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B249,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" ht="15">
+      <c r="C250" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B250,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" ht="15">
+      <c r="C251" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B251,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" ht="15">
+      <c r="C252" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B252,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" ht="15">
+      <c r="C253" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B253,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" ht="15">
+      <c r="C254" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B254,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" ht="15">
+      <c r="C255" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B255,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" ht="15">
+      <c r="C256" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B256,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" ht="15">
+      <c r="C257" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B257,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" ht="15">
+      <c r="C258" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B258,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" ht="15">
+      <c r="C259" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B259,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" ht="15">
+      <c r="C260" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B260,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" ht="15">
+      <c r="C261" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B261,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" ht="15">
+      <c r="C262" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B262,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" ht="15">
+      <c r="C263" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B263,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" ht="15">
+      <c r="C264" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B264,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" ht="15">
+      <c r="C265" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B265,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" ht="15">
+      <c r="C266" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B266,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" ht="15">
+      <c r="C267" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B267,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" ht="15">
+      <c r="C268" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B268,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" ht="15">
+      <c r="C269" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B269,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" ht="15">
+      <c r="C270" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B270,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" ht="15">
+      <c r="C271" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B271,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" ht="15">
+      <c r="C272" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B272,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" ht="15">
+      <c r="C273" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B273,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" ht="15">
+      <c r="C274" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B274,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" ht="15">
+      <c r="C275" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B275,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" ht="15">
+      <c r="C276" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B276,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" ht="15">
+      <c r="C277" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B277,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" ht="15">
+      <c r="C278" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B278,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" ht="15">
+      <c r="C279" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B279,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" ht="15">
+      <c r="C280" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B280,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" ht="15">
+      <c r="C281" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B281,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" ht="15">
+      <c r="C282" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B282,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" ht="15">
+      <c r="C283" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B283,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" ht="15">
+      <c r="C284" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B284,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" ht="15">
+      <c r="C285" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B285,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" ht="15">
+      <c r="C286" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B286,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" ht="15">
+      <c r="C287" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B287,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288" ht="15">
+      <c r="C288" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B288,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" ht="15">
+      <c r="C289" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B289,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" ht="15">
+      <c r="C290" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B290,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" ht="15">
+      <c r="C291" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B291,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" ht="15">
+      <c r="C292" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B292,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" ht="15">
+      <c r="C293" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B293,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" ht="15">
+      <c r="C294" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B294,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" ht="15">
+      <c r="C295" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B295,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" ht="15">
+      <c r="C296" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B296,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297" ht="15">
+      <c r="C297" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B297,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298" ht="15">
+      <c r="C298" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B298,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" ht="15">
+      <c r="C299" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B299,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" ht="15">
+      <c r="C300" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B300,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301" ht="15">
+      <c r="C301" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B301,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="302" ht="15">
+      <c r="C302" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B302,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303" ht="15">
+      <c r="C303" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B303,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304" ht="15">
+      <c r="C304" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B304,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305" ht="15">
+      <c r="C305" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B305,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="306" ht="15">
+      <c r="C306" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B306,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="307" ht="15">
+      <c r="C307" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B307,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308" ht="15">
+      <c r="C308" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B308,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="309" ht="15">
+      <c r="C309" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B309,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="310" ht="15">
+      <c r="C310" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B310,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="311" ht="15">
+      <c r="C311" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B311,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="312" ht="15">
+      <c r="C312" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B312,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="313" ht="15">
+      <c r="C313" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B313,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="314" ht="15">
+      <c r="C314" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B314,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="315" ht="15">
+      <c r="C315" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B315,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="316" ht="15">
+      <c r="C316" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B316,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="317" ht="15">
+      <c r="C317" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B317,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="318" ht="15">
+      <c r="C318" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B318,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="319" ht="15">
+      <c r="C319" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B319,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="320" ht="15">
+      <c r="C320" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B320,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="321" ht="15">
+      <c r="C321" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B321,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="322" ht="15">
+      <c r="C322" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B322,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="323" ht="15">
+      <c r="C323" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B323,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" ht="15">
+      <c r="C324" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B324,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325" ht="15">
+      <c r="C325" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B325,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="326" ht="15">
+      <c r="C326" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B326,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="327" ht="15">
+      <c r="C327" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B327,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="328" ht="15">
+      <c r="C328" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B328,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="329" ht="15">
+      <c r="C329" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B329,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="330" ht="15">
+      <c r="C330" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B330,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="331" ht="15">
+      <c r="C331" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B331,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="332" ht="15">
+      <c r="C332" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B332,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="333" ht="15">
+      <c r="C333" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B333,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="334" ht="15">
+      <c r="C334" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B334,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="335" ht="15">
+      <c r="C335" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B335,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="336" ht="15">
+      <c r="C336" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B336,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="337" ht="15">
+      <c r="C337" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B337,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="338" ht="15">
+      <c r="C338" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B338,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="339" ht="15">
+      <c r="C339" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B339,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="340" ht="15">
+      <c r="C340" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B340,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="341" ht="15">
+      <c r="C341" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B341,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342" ht="15">
+      <c r="C342" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B342,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="343" ht="15">
+      <c r="C343" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B343,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="344" ht="15">
+      <c r="C344" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B344,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="345" ht="15">
+      <c r="C345" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B345,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="346" ht="15">
+      <c r="C346" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B346,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="347" ht="15">
+      <c r="C347" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B347,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="348" ht="15">
+      <c r="C348" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B348,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="349" ht="15">
+      <c r="C349" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B349,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="350" ht="15">
+      <c r="C350" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B350,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="351" ht="15">
+      <c r="C351" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B351,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="352" ht="15">
+      <c r="C352" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B352,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="353" ht="15">
+      <c r="C353" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B353,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="354" ht="15">
+      <c r="C354" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B354,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="355" ht="15">
+      <c r="C355" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B355,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="356" ht="15">
+      <c r="C356" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B356,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="357" ht="15">
+      <c r="C357" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B357,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="358" ht="15">
+      <c r="C358" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B358,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359" ht="15">
+      <c r="C359" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B359,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="360" ht="15">
+      <c r="C360" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B360,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="361" ht="15">
+      <c r="C361" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B361,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="362" ht="15">
+      <c r="C362" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B362,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="363" ht="15">
+      <c r="C363" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B363,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="364" ht="15">
+      <c r="C364" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B364,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="365" ht="15">
+      <c r="C365" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B365,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="366" ht="15">
+      <c r="C366" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B366,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="367" ht="15">
+      <c r="C367" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B367,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="368" ht="15">
+      <c r="C368" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B368,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="369" ht="15">
+      <c r="C369" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B369,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="370" ht="15">
+      <c r="C370" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B370,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="371" ht="15">
+      <c r="C371" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B371,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="372" ht="15">
+      <c r="C372" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B372,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="373" ht="15">
+      <c r="C373" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B373,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="374" ht="15">
+      <c r="C374" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B374,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="375" ht="15">
+      <c r="C375" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B375,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376" ht="15">
+      <c r="C376" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B376,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="377" ht="15">
+      <c r="C377" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B377,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="378" ht="15">
+      <c r="C378" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B378,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="379" ht="15">
+      <c r="C379" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B379,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="380" ht="15">
+      <c r="C380" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B380,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="381" ht="15">
+      <c r="C381" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B381,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="382" ht="15">
+      <c r="C382" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B382,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="383" ht="15">
+      <c r="C383" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B383,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="384" ht="15">
+      <c r="C384" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B384,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="385" ht="15">
+      <c r="C385" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B385,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="386" ht="15">
+      <c r="C386" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B386,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="387" ht="15">
+      <c r="C387" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B387,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="388" ht="15">
+      <c r="C388" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B388,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="389" ht="15">
+      <c r="C389" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B389,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="390" ht="15">
+      <c r="C390" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B390,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="391" ht="15">
+      <c r="C391" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B391,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="392" ht="15">
+      <c r="C392" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B392,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="393" ht="15">
+      <c r="C393" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B393,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="394" ht="15">
+      <c r="C394" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B394,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="395" ht="15">
+      <c r="C395" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B395,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="396" ht="15">
+      <c r="C396" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B396,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="397" ht="15">
+      <c r="C397" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B397,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="398" ht="15">
+      <c r="C398" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B398,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="399" ht="15">
+      <c r="C399" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B399,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="400" ht="15">
+      <c r="C400" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B400,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="401" ht="15">
+      <c r="C401" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B401,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="402" ht="15">
+      <c r="C402" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B402,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="403" ht="15">
+      <c r="C403" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B403,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="404" ht="15">
+      <c r="C404" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B404,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="405" ht="15">
+      <c r="C405" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B405,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="406" ht="15">
+      <c r="C406" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B406,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="407" ht="15">
+      <c r="C407" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B407,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="408" ht="15">
+      <c r="C408" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B408,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="409" ht="15">
+      <c r="C409" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B409,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="410" ht="15">
+      <c r="C410" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B410,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="411" ht="15">
+      <c r="C411" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B411,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="412" ht="15">
+      <c r="C412" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B412,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="413" ht="15">
+      <c r="C413" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B413,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="414" ht="15">
+      <c r="C414" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B414,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="415" ht="15">
+      <c r="C415" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B415,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="416" ht="15">
+      <c r="C416" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B416,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="417" ht="15">
+      <c r="C417" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B417,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="418" ht="15">
+      <c r="C418" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B418,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="419" ht="15">
+      <c r="C419" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B419,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="420" ht="15">
+      <c r="C420" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B420,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="421" ht="15">
+      <c r="C421" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B421,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="422" ht="15">
+      <c r="C422" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B422,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="423" ht="15">
+      <c r="C423" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B423,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="424" ht="15">
+      <c r="C424" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B424,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="425" ht="15">
+      <c r="C425" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B425,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="426" ht="15">
+      <c r="C426" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B426,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="427" ht="15">
+      <c r="C427" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B427,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="428" ht="15">
+      <c r="C428" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B428,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="429" ht="15">
+      <c r="C429" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B429,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="430" ht="15">
+      <c r="C430" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B430,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="431" ht="15">
+      <c r="C431" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B431,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="432" ht="15">
+      <c r="C432" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B432,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="433" ht="15">
+      <c r="C433" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B433,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="434" ht="15">
+      <c r="C434" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B434,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="435" ht="15">
+      <c r="C435" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B435,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="436" ht="15">
+      <c r="C436" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B436,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="437" ht="15">
+      <c r="C437" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B437,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="438" ht="15">
+      <c r="C438" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B438,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="439" ht="15">
+      <c r="C439" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B439,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="440" ht="15">
+      <c r="C440" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B440,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="441" ht="15">
+      <c r="C441" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B441,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="442" ht="15">
+      <c r="C442" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B442,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="443" ht="15">
+      <c r="C443" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B443,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="444" ht="15">
+      <c r="C444" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B444,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="445" ht="15">
+      <c r="C445" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B445,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="446" ht="15">
+      <c r="C446" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B446,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="447" ht="15">
+      <c r="C447" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B447,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="448" ht="15">
+      <c r="C448" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B448,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="449" ht="15">
+      <c r="C449" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B449,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="450" ht="15">
+      <c r="C450" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B450,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="451" ht="15">
+      <c r="C451" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B451,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="452" ht="15">
+      <c r="C452" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B452,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="453" ht="15">
+      <c r="C453" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B453,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="454" ht="15">
+      <c r="C454" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B454,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="455" ht="15">
+      <c r="C455" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B455,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="456" ht="15">
+      <c r="C456" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B456,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="457" ht="15">
+      <c r="C457" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B457,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="458" ht="15">
+      <c r="C458" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B458,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="459" ht="15">
+      <c r="C459" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B459,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="460" ht="15">
+      <c r="C460" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B460,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="461" ht="15">
+      <c r="C461" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B461,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="462" ht="15">
+      <c r="C462" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B462,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="463" ht="15">
+      <c r="C463" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B463,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="464" ht="15">
+      <c r="C464" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B464,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="465" ht="15">
+      <c r="C465" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B465,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="466" ht="15">
+      <c r="C466" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B466,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="467" ht="15">
+      <c r="C467" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B467,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="468" ht="15">
+      <c r="C468" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B468,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="469" ht="15">
+      <c r="C469" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B469,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="470" ht="15">
+      <c r="C470" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B470,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="471" ht="15">
+      <c r="C471" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B471,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="472" ht="15">
+      <c r="C472" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B472,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="473" ht="15">
+      <c r="C473" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B473,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="474" ht="15">
+      <c r="C474" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B474,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="475" ht="15">
+      <c r="C475" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B475,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="476" ht="15">
+      <c r="C476" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B476,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="477" ht="15">
+      <c r="C477" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B477,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="478" ht="15">
+      <c r="C478" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B478,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="479" ht="15">
+      <c r="C479" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B479,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="480" ht="15">
+      <c r="C480" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B480,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="481" ht="15">
+      <c r="C481" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B481,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="482" ht="15">
+      <c r="C482" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B482,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="483" ht="15">
+      <c r="C483" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B483,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="484" ht="15">
+      <c r="C484" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B484,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="485" ht="15">
+      <c r="C485" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B485,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="486" ht="15">
+      <c r="C486" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B486,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="487" ht="15">
+      <c r="C487" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B487,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="488" ht="15">
+      <c r="C488" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B488,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="489" ht="15">
+      <c r="C489" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B489,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="490" ht="15">
+      <c r="C490" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B490,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="491" ht="15">
+      <c r="C491" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B491,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="492" ht="15">
+      <c r="C492" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B492,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="493" ht="15">
+      <c r="C493" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B493,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="494" ht="15">
+      <c r="C494" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B494,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="495" ht="15">
+      <c r="C495" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B495,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="496" ht="15">
+      <c r="C496" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B496,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="497" ht="15">
+      <c r="C497" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B497,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="498" ht="15">
+      <c r="C498" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B498,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="499" ht="15">
+      <c r="C499" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B499,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="500" ht="15">
+      <c r="C500" s="1" t="str">
+        <f ca="1">IFERROR(INDEX(OFFSET('[1]Sheet1'!$D$1,0,0,MaxCount),MATCH($B500,OFFSET('[1]Sheet1'!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -1144,7 +1144,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{CE68F97E-CA4C-49A7-9234-F5D54DE11700}">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{22E3972C-2FB1-4295-86C4-1EB50C13316B}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1153,7 +1153,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{A8A50A9F-99D0-496F-9EB8-086F8B7DC791}">
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{23948ED1-7D83-4431-84CB-6B997447A43E}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1413,7 +1413,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" outlineLevelCol="6"/>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -1144,7 +1144,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{22E3972C-2FB1-4295-86C4-1EB50C13316B}">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{32B2F188-7419-492A-99E4-B177738A0F4F}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1153,7 +1153,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{23948ED1-7D83-4431-84CB-6B997447A43E}">
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{437591B0-031D-43B4-94D5-84F399646536}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1413,7 +1413,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" outlineLevelCol="6"/>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="11925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>int</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>119431.19|-79163.87|9094.56</t>
+  </si>
+  <si>
+    <t>动物001</t>
   </si>
   <si>
     <t>MaxLanItemCount</t>
@@ -1144,7 +1147,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{32B2F188-7419-492A-99E4-B177738A0F4F}">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{9FC8BFB6-81E3-4081-85D6-927581E04C6D}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1153,7 +1156,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{437591B0-031D-43B4-94D5-84F399646536}">
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{F68B5EC7-8FDA-4C6A-A661-9EC51E6E7ACC}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1413,7 +1416,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1489,7 +1492,7 @@
       </c>
       <c r="C5" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B5,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D5" s="8" t="s">
         <v>16</v>
@@ -1504,7 +1507,7 @@
       </c>
       <c r="C6" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B6,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D6" s="8" t="s">
         <v>17</v>
@@ -1519,7 +1522,7 @@
       </c>
       <c r="C7" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B7,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D7" s="8" t="s">
         <v>18</v>
@@ -1534,7 +1537,7 @@
       </c>
       <c r="C8" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B8,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
@@ -1549,7 +1552,7 @@
       </c>
       <c r="C9" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B9,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D9" s="8" t="s">
         <v>20</v>
@@ -1564,7 +1567,7 @@
       </c>
       <c r="C10" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B10,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D10" s="8" t="s">
         <v>21</v>
@@ -1579,7 +1582,7 @@
       </c>
       <c r="C11" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B11,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D11" s="8" t="s">
         <v>22</v>
@@ -1594,7 +1597,7 @@
       </c>
       <c r="C12" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B12,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D12" s="9" t="s">
         <v>23</v>
@@ -1612,7 +1615,7 @@
       </c>
       <c r="C13" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B13,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D13" s="9" t="s">
         <v>24</v>
@@ -1630,7 +1633,7 @@
       </c>
       <c r="C14" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B14,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D14" s="9" t="s">
         <v>25</v>
@@ -1648,7 +1651,7 @@
       </c>
       <c r="C15" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B15,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D15" s="9" t="s">
         <v>26</v>
@@ -1666,7 +1669,7 @@
       </c>
       <c r="C16" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B16,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>龍吟村</v>
+        <v/>
       </c>
       <c r="D16" s="8" t="s">
         <v>28</v>
@@ -1684,7 +1687,7 @@
       </c>
       <c r="C17" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B17,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>出生點</v>
+        <v/>
       </c>
       <c r="D17" s="8" t="s">
         <v>30</v>
@@ -1925,7 +1928,12 @@
       </c>
     </row>
     <row r="33" s="3" customFormat="1" spans="1:3">
-      <c r="A33" s="10"/>
+      <c r="A33" s="10">
+        <v>29</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="C33" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B33,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -4766,7 +4774,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1">
         <v>2000</v>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="11925"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>int</t>
   </si>
@@ -135,46 +135,25 @@
     <t>3006|-19105|1508</t>
   </si>
   <si>
-    <t>Cowlevel001</t>
-  </si>
-  <si>
-    <t>200239.58|99256.01|265.78||200851.58|99965.01|265.78||200738.58|101180.01|265.78||200609.58|100067.01|863.78</t>
-  </si>
-  <si>
-    <t>Cowlevel002</t>
-  </si>
-  <si>
-    <t>598563.75|594154.88|7143.97||602921.75|595009.88|7143.97||602921.75|595009.88|7851.97||602921.75|601241.88|7851.97||598241.75|602673.88|7851.97||598241.75|594819.88|7851.97||602921.75|600363.88|7295.97</t>
-  </si>
-  <si>
-    <t>Cowlevel003</t>
-  </si>
-  <si>
-    <t>498910.44|46868.74|45986||496482.44|48743.74|45986||498294.44|55570.74|45986||499992.44|56135.74|45986||499992.44|56135.74|46753.00||499228.44|47348.74|46753||496626.44|48303.74|46753||498189.44|55497.74|46424</t>
-  </si>
-  <si>
-    <t>Cowlevel004</t>
-  </si>
-  <si>
-    <t>97705.11|1001785.63|6204.8||97705.11|995826.63|6204.8||101330.11|995826.63|6204.8||101330.11|1001359.63|6204.80||101330.11|1001359.63|6911.80||97885.11|1001359.63|6911.80||97885.11|996353.63|6911.80||101778.11|996223.63|6911.80</t>
-  </si>
-  <si>
-    <t>Cowlevel005</t>
-  </si>
-  <si>
-    <t>98879.05|1000148.06|10082||98879.05|997982.06|10082||100784.05|997982.06|10082||100186.05|999942.06|10082||99185.45|999750.75|10589||99239.05|998549.06|10590||99851.05|998549.06|10590||99851.05|999709.06|10590</t>
-  </si>
-  <si>
-    <t>Cowlevel006</t>
-  </si>
-  <si>
-    <t>1010497.13|18739.56|4593.87||1006911.13|16723.56|4593.87||1004790.13|19763.56|4593.87||1006629.13|19763.56|5473.87||1009839.13|18905.56|5473.87||1007139.13|17599.56|5473.87</t>
-  </si>
-  <si>
-    <t>Cowlevel007</t>
-  </si>
-  <si>
-    <t>8978.4|229.39|296699.97||5201.4|229.39|296699.97||5201.4|5546.39|296699.97||6494.4|5546.39|296699.97||6494.4|5037.39|297305.97||6494.4|1696.39|297305.97||5428.4|3174.39|297305.97</t>
+    <t>赐福天光</t>
+  </si>
+  <si>
+    <t>火炎地狱</t>
+  </si>
+  <si>
+    <t>永眠之暗</t>
+  </si>
+  <si>
+    <t>天空树01</t>
+  </si>
+  <si>
+    <t>天空树02</t>
+  </si>
+  <si>
+    <t>荒野边疆</t>
+  </si>
+  <si>
+    <t>涌动之水</t>
   </si>
   <si>
     <t>Cowbirth001</t>
@@ -1147,7 +1126,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{9FC8BFB6-81E3-4081-85D6-927581E04C6D}">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{76A1E481-49ED-4E07-9242-1C3410BCFF7F}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1156,7 +1135,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{F68B5EC7-8FDA-4C6A-A661-9EC51E6E7ACC}">
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{982EA6DB-75D9-40AE-BEBC-6948551D0688}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1416,7 +1395,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1492,7 +1471,7 @@
       </c>
       <c r="C5" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B5,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>測試區域</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>16</v>
@@ -1507,7 +1486,7 @@
       </c>
       <c r="C6" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B6,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>測試區域</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>17</v>
@@ -1522,7 +1501,7 @@
       </c>
       <c r="C7" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B7,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>測試區域</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>18</v>
@@ -1537,7 +1516,7 @@
       </c>
       <c r="C8" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B8,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>測試區域</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
@@ -1552,7 +1531,7 @@
       </c>
       <c r="C9" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B9,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>測試區域</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>20</v>
@@ -1567,7 +1546,7 @@
       </c>
       <c r="C10" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B10,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>測試區域</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>21</v>
@@ -1582,7 +1561,7 @@
       </c>
       <c r="C11" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B11,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>測試區域</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>22</v>
@@ -1597,7 +1576,7 @@
       </c>
       <c r="C12" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B12,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>測試區域</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>23</v>
@@ -1615,7 +1594,7 @@
       </c>
       <c r="C13" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B13,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>測試區域</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>24</v>
@@ -1633,7 +1612,7 @@
       </c>
       <c r="C14" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B14,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>測試區域</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>25</v>
@@ -1651,7 +1630,7 @@
       </c>
       <c r="C15" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B15,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>測試區域</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>26</v>
@@ -1669,7 +1648,7 @@
       </c>
       <c r="C16" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B16,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>龍吟村</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>28</v>
@@ -1687,7 +1666,7 @@
       </c>
       <c r="C17" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B17,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
+        <v>出生點</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>30</v>
@@ -1725,101 +1704,81 @@
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B19,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:4">
+    <row r="20" s="3" customFormat="1" spans="1:3">
       <c r="A20" s="10">
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B20,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:4">
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:3">
       <c r="A21" s="10">
         <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B21,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="1:4">
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:3">
       <c r="A22" s="10">
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B22,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="1:4">
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:3">
       <c r="A23" s="10">
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B23,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="1:4">
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:3">
       <c r="A24" s="10">
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B24,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="1:4">
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:3">
       <c r="A25" s="10">
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B25,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" spans="1:4">
@@ -1827,14 +1786,14 @@
         <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B26,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D26" s="11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1" spans="1:4">
@@ -1842,14 +1801,14 @@
         <v>23</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B27,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D27" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" spans="1:4">
@@ -1857,14 +1816,14 @@
         <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B28,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D28" s="11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" spans="1:4">
@@ -1872,14 +1831,14 @@
         <v>25</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C29" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B29,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D29" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="1" spans="1:4">
@@ -1887,14 +1846,14 @@
         <v>26</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C30" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B30,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D30" s="11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" s="3" customFormat="1" spans="1:4">
@@ -1902,14 +1861,14 @@
         <v>27</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B31,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D31" s="11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1" spans="1:4">
@@ -1917,14 +1876,14 @@
         <v>28</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C32" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B32,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D32" s="12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" s="3" customFormat="1" spans="1:3">
@@ -1932,7 +1891,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B33,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -4774,7 +4733,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1">
         <v>2000</v>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="11925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>int</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>是否构成排序后的非凸包</t>
-  </si>
-  <si>
-    <t>Language</t>
   </si>
   <si>
     <t>TestAreaName0001</t>
@@ -1126,7 +1123,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{76A1E481-49ED-4E07-9242-1C3410BCFF7F}">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{C2239E8D-CFE6-4AA3-8A5C-B851CCAEFFD2}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1135,7 +1132,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{982EA6DB-75D9-40AE-BEBC-6948551D0688}">
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{E65619B9-1038-48FD-BA19-E42DF63E1457}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1395,7 +1392,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1457,24 +1454,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="2:2">
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="4" s="3" customFormat="1"/>
     <row r="5" s="3" customFormat="1" spans="1:4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B5,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:4">
@@ -1482,14 +1475,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B6,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:4">
@@ -1497,14 +1490,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B7,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:4">
@@ -1512,14 +1505,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B8,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:4">
@@ -1527,14 +1520,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B9,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:4">
@@ -1542,14 +1535,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B10,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:4">
@@ -1557,14 +1550,14 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B11,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:7">
@@ -1572,14 +1565,14 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B12,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D12" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1590,14 +1583,14 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B13,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D13" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1608,14 +1601,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B14,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D14" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -1626,14 +1619,14 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B15,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>測試區域</v>
+        <v/>
       </c>
       <c r="D15" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1644,14 +1637,14 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B16,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>龍吟村</v>
+        <v/>
       </c>
       <c r="D16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1662,14 +1655,14 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B17,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v>出生點</v>
+        <v/>
       </c>
       <c r="D17" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1680,14 +1673,14 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B18,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1698,7 +1691,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B19,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1714,7 +1707,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B20,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1726,7 +1719,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B21,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1738,7 +1731,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B22,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1750,7 +1743,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B23,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1762,7 +1755,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B24,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1774,7 +1767,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B25,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -1786,14 +1779,14 @@
         <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B26,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D26" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1" spans="1:4">
@@ -1801,14 +1794,14 @@
         <v>23</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B27,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D27" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" spans="1:4">
@@ -1816,14 +1809,14 @@
         <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B28,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D28" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" spans="1:4">
@@ -1831,14 +1824,14 @@
         <v>25</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B29,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D29" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="1" spans="1:4">
@@ -1846,14 +1839,14 @@
         <v>26</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B30,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D30" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" s="3" customFormat="1" spans="1:4">
@@ -1861,14 +1854,14 @@
         <v>27</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B31,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D31" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1" spans="1:4">
@@ -1876,14 +1869,14 @@
         <v>28</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B32,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
       <c r="D32" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" s="3" customFormat="1" spans="1:3">
@@ -1891,7 +1884,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B33,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
@@ -4733,7 +4726,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1">
         <v>2000</v>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>int</t>
   </si>
@@ -196,6 +196,36 @@
   </si>
   <si>
     <t>动物001</t>
+  </si>
+  <si>
+    <t>动物002</t>
+  </si>
+  <si>
+    <t>动物003</t>
+  </si>
+  <si>
+    <t>动物004</t>
+  </si>
+  <si>
+    <t>动物005</t>
+  </si>
+  <si>
+    <t>动物006</t>
+  </si>
+  <si>
+    <t>动物007</t>
+  </si>
+  <si>
+    <t>动物008</t>
+  </si>
+  <si>
+    <t>动物009</t>
+  </si>
+  <si>
+    <t>动物010</t>
+  </si>
+  <si>
+    <t>动物011</t>
   </si>
   <si>
     <t>MaxLanItemCount</t>
@@ -1123,7 +1153,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{C2239E8D-CFE6-4AA3-8A5C-B851CCAEFFD2}">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{971A0B41-D769-47DC-A0A7-90A8D25AFCFF}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1132,7 +1162,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{E65619B9-1038-48FD-BA19-E42DF63E1457}">
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{1FF997CF-651A-41B0-BA84-5650DFA2500A}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1390,9 +1420,9 @@
   <dimension ref="A1:G500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1892,70 +1922,120 @@
       </c>
     </row>
     <row r="34" s="3" customFormat="1" spans="1:3">
-      <c r="A34" s="10"/>
+      <c r="A34" s="10">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C34" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B34,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="35" s="3" customFormat="1" spans="1:3">
-      <c r="A35" s="10"/>
+      <c r="A35" s="10">
+        <v>31</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C35" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B35,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="36" s="3" customFormat="1" spans="1:3">
-      <c r="A36" s="10"/>
+      <c r="A36" s="10">
+        <v>32</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C36" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B36,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="37" s="3" customFormat="1" spans="1:3">
-      <c r="A37" s="10"/>
+      <c r="A37" s="10">
+        <v>33</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="C37" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B37,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="38" s="3" customFormat="1" spans="1:3">
-      <c r="A38" s="10"/>
+      <c r="A38" s="10">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="C38" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B38,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="39" s="3" customFormat="1" spans="1:3">
-      <c r="A39" s="10"/>
+      <c r="A39" s="10">
+        <v>35</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="C39" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B39,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="40" s="3" customFormat="1" spans="1:3">
-      <c r="A40" s="10"/>
+      <c r="A40" s="10">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="C40" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B40,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="41" s="3" customFormat="1" spans="1:3">
-      <c r="A41" s="10"/>
+      <c r="A41" s="10">
+        <v>37</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="C41" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B41,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="42" s="3" customFormat="1" spans="1:3">
-      <c r="A42" s="10"/>
+      <c r="A42" s="10">
+        <v>38</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="C42" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B42,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="43" s="3" customFormat="1" spans="1:3">
-      <c r="A43" s="10"/>
+      <c r="A43" s="10">
+        <v>39</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="C43" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B43,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -4726,7 +4806,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1">
         <v>2000</v>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>int</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>动物011</t>
+  </si>
+  <si>
+    <t>动物012</t>
+  </si>
+  <si>
+    <t>动物013</t>
   </si>
   <si>
     <t>MaxLanItemCount</t>
@@ -1153,7 +1159,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{971A0B41-D769-47DC-A0A7-90A8D25AFCFF}">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{D32E626C-DB44-420A-BA96-9D041980E8C1}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1162,7 +1168,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{1FF997CF-651A-41B0-BA84-5650DFA2500A}">
+    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{AB2CC9C0-1644-49DB-84D1-35EB305971F4}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1422,7 +1428,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -2041,13 +2047,25 @@
         <v/>
       </c>
     </row>
-    <row r="44" s="3" customFormat="1" spans="3:3">
+    <row r="44" s="3" customFormat="1" spans="1:3">
+      <c r="A44" s="10">
+        <v>40</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="C44" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B44,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="1:3">
+      <c r="A45" s="10">
+        <v>41</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="C45" s="3" t="str">
         <f ca="1">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B45,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -4806,7 +4824,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1">
         <v>2000</v>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -230,85 +230,85 @@
     <t xml:space="preserve">Cowbirth008</t>
   </si>
   <si>
-    <t xml:space="preserve">13725.56|-90030.58|1473</t>
+    <t xml:space="preserve">87865.75|-12448.28|-705.51</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth009</t>
   </si>
   <si>
-    <t xml:space="preserve">-39766.18|-90945.82|636.53</t>
+    <t xml:space="preserve">800000|0|104</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth010</t>
   </si>
   <si>
-    <t xml:space="preserve">-3886.54|-116602.45|378.67</t>
+    <t xml:space="preserve">700000|-30|88</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth011</t>
   </si>
   <si>
-    <t xml:space="preserve">-22150|-108932|585</t>
+    <t xml:space="preserve">600000|0|200</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth012</t>
   </si>
   <si>
-    <t xml:space="preserve">-70721.15|-100128.76|99324.5</t>
+    <t xml:space="preserve">601881.5|-600237.8|-680.8</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth013</t>
   </si>
   <si>
-    <t xml:space="preserve">-233774.22|-97647.98|10517.25</t>
+    <t xml:space="preserve">400174|99817|193</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth014</t>
   </si>
   <si>
-    <t xml:space="preserve">-144686|-24014|3714</t>
+    <t xml:space="preserve">404924|199894|910</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth015</t>
   </si>
   <si>
-    <t xml:space="preserve">-123350|12678|103665</t>
+    <t xml:space="preserve">397287|293054|674</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth016</t>
   </si>
   <si>
-    <t xml:space="preserve">-114013|167450|9853</t>
+    <t xml:space="preserve">300345|99957|125</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth017</t>
   </si>
   <si>
-    <t xml:space="preserve">-57094|174961|3091</t>
+    <t xml:space="preserve">199422|97453|118</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth018</t>
   </si>
   <si>
-    <t xml:space="preserve">-74862.14|207091.63|4327.8</t>
+    <t xml:space="preserve">100000|98613|43</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth019</t>
   </si>
   <si>
-    <t xml:space="preserve">-52204|220420|11801</t>
+    <t xml:space="preserve">898978|200000|0</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth020</t>
   </si>
   <si>
-    <t xml:space="preserve">52427|241595|11225</t>
+    <t xml:space="preserve">801091|212612|235</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth021</t>
   </si>
   <si>
-    <t xml:space="preserve">94117|114872.3|17578.3</t>
+    <t xml:space="preserve">699229|204559|-351</t>
   </si>
   <si>
     <t xml:space="preserve">MaxLanItemCount</t>
@@ -410,55 +410,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -678,66 +678,66 @@
   <dimension ref="A1:G500"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
+      <selection pane="bottomLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="40.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="120.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="120.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.63"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -746,14 +746,14 @@
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="str">
+      <c r="C5" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B5,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -761,14 +761,14 @@
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="str">
+      <c r="C6" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B6,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -776,14 +776,14 @@
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="str">
+      <c r="C7" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B7,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -791,14 +791,14 @@
       <c r="A8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="str">
+      <c r="C8" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B8,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -806,14 +806,14 @@
       <c r="A9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="str">
+      <c r="C9" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B9,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -821,14 +821,14 @@
       <c r="A10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="str">
+      <c r="C10" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B10,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -836,14 +836,14 @@
       <c r="A11" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6" t="str">
+      <c r="C11" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B11,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -851,311 +851,311 @@
       <c r="A12" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6" t="str">
+      <c r="C12" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B12,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="str">
+      <c r="C13" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B13,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6" t="str">
+      <c r="C14" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B14,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="str">
+      <c r="C15" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B15,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="6" t="str">
+      <c r="C16" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B16,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6" t="str">
+      <c r="C17" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B17,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="str">
+      <c r="C18" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B18,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="6" t="str">
+      <c r="C19" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B19,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="6" t="str">
+      <c r="C20" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B20,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="6" t="str">
+      <c r="C21" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B21,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
+      <c r="A22" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="6" t="str">
+      <c r="C22" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B22,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="6" t="str">
+      <c r="C23" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B23,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="24" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="6" t="str">
+      <c r="C24" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B24,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="6" t="str">
+      <c r="C25" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B25,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="6" t="str">
+      <c r="C26" s="7" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B26,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
+      <c r="A27" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B27,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
+      <c r="A28" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B28,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
+      <c r="A29" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B29,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
+      <c r="A30" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B30,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
+      <c r="A31" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B31,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
+      <c r="A32" s="10" t="n">
         <v>28</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C32" s="1" t="str">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
+      <c r="A33" s="10" t="n">
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1179,7 +1179,7 @@
       </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="n">
+      <c r="A34" s="10" t="n">
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1191,7 +1191,7 @@
       </c>
     </row>
     <row r="35" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="n">
+      <c r="A35" s="10" t="n">
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1203,7 +1203,7 @@
       </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
+      <c r="A36" s="10" t="n">
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1215,7 +1215,7 @@
       </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
+      <c r="A37" s="10" t="n">
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1227,7 +1227,7 @@
       </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="n">
+      <c r="A38" s="10" t="n">
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1239,7 +1239,7 @@
       </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="n">
+      <c r="A39" s="10" t="n">
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1251,7 +1251,7 @@
       </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
+      <c r="A40" s="10" t="n">
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="n">
+      <c r="A41" s="10" t="n">
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1275,7 +1275,7 @@
       </c>
     </row>
     <row r="42" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="n">
+      <c r="A42" s="10" t="n">
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1287,7 +1287,7 @@
       </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="n">
+      <c r="A43" s="10" t="n">
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1299,7 +1299,7 @@
       </c>
     </row>
     <row r="44" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="n">
+      <c r="A44" s="10" t="n">
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1311,7 +1311,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="n">
+      <c r="A45" s="10" t="n">
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1323,7 +1323,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="n">
+      <c r="A46" s="10" t="n">
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1338,7 +1338,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="n">
+      <c r="A47" s="10" t="n">
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1353,7 +1353,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="n">
+      <c r="A48" s="10" t="n">
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1368,7 +1368,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="n">
+      <c r="A49" s="10" t="n">
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1383,7 +1383,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="n">
+      <c r="A50" s="10" t="n">
         <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1398,7 +1398,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="n">
+      <c r="A51" s="10" t="n">
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1413,7 +1413,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="n">
+      <c r="A52" s="10" t="n">
         <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1428,7 +1428,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="n">
+      <c r="A53" s="10" t="n">
         <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1443,7 +1443,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="n">
+      <c r="A54" s="10" t="n">
         <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -1458,7 +1458,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="n">
+      <c r="A55" s="10" t="n">
         <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -1473,7 +1473,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="n">
+      <c r="A56" s="10" t="n">
         <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -1488,7 +1488,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="n">
+      <c r="A57" s="10" t="n">
         <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -1503,7 +1503,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="n">
+      <c r="A58" s="10" t="n">
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -1518,7 +1518,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="n">
+      <c r="A59" s="10" t="n">
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -255,12 +255,6 @@
   </si>
   <si>
     <t xml:space="preserve">601881.5|-600237.8|-680.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cowbirth013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400174|99817|193</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth014</t>
@@ -678,9 +672,9 @@
   <dimension ref="A1:G500"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
+      <selection pane="bottomLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1518,19 +1512,9 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="n">
-        <v>55</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C59" s="1" t="str">
-        <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B59,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>93</v>
-      </c>
+      <c r="B59" s="0"/>
+      <c r="C59" s="0"/>
+      <c r="D59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="1" t="str">
@@ -4204,7 +4188,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="13" t="n">
         <v>2000</v>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">Cowbirth017</t>
   </si>
   <si>
-    <t xml:space="preserve">199422|97453|118</t>
+    <t xml:space="preserve">299389.4|196987|90.4</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth018</t>
@@ -303,6 +303,45 @@
   </si>
   <si>
     <t xml:space="preserve">699229|204559|-351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樱花森林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">绿洲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">河畔小巷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">覆潮之下</t>
+  </si>
+  <si>
+    <t xml:space="preserve">糖果乐园</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巫师豪宅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">观测站</t>
+  </si>
+  <si>
+    <t xml:space="preserve">很喜欢的宇宙阴暗场景</t>
+  </si>
+  <si>
+    <t xml:space="preserve">温泉旅馆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寻常一角</t>
+  </si>
+  <si>
+    <t xml:space="preserve">洞穴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炼狱城堡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高塔</t>
   </si>
   <si>
     <t xml:space="preserve">MaxLanItemCount</t>
@@ -672,9 +711,9 @@
   <dimension ref="A1:G500"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1512,77 +1551,153 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0"/>
-      <c r="C59" s="0"/>
-      <c r="D59" s="0"/>
+      <c r="A59" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="C60" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B60,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="C61" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B61,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="C62" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B62,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C63" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B63,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="C64" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B64,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C65" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B65,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C66" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B66,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="C67" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B67,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="C68" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B68,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="C69" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B69,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="C70" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B70,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="C71" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B71,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
@@ -4188,7 +4303,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B1" s="13" t="n">
         <v>2000</v>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -711,9 +711,9 @@
   <dimension ref="A1:G500"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
+      <selection pane="bottomLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1551,7 +1551,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="2" t="n">
         <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -1560,7 +1560,7 @@
       <c r="C59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="2" t="n">
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -1572,7 +1572,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="2" t="n">
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -1584,7 +1584,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="2" t="n">
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -1596,7 +1596,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="2" t="n">
         <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -1608,7 +1608,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="2" t="n">
         <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -1620,7 +1620,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="2" t="n">
         <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -1632,7 +1632,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="2" t="n">
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -1644,7 +1644,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="2" t="n">
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -1656,7 +1656,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="2" t="n">
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -1668,7 +1668,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="A69" s="2" t="n">
         <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -1680,7 +1680,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="A70" s="2" t="n">
         <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -1692,7 +1692,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="A71" s="2" t="n">
         <v>67</v>
       </c>
       <c r="B71" s="1" t="s">

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -149,7 +149,7 @@
     <t xml:space="preserve">Cowbirth001</t>
   </si>
   <si>
-    <t xml:space="preserve">7983.23|1689.94|297205.16</t>
+    <t xml:space="preserve">137194|-55195.01|-1771</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth002</t>
@@ -711,9 +711,9 @@
   <dimension ref="A1:G500"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
+      <selection pane="bottomLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -122,7 +122,7 @@
     <t xml:space="preserve">BirthPoint</t>
   </si>
   <si>
-    <t xml:space="preserve">3006|-19105|1508</t>
+    <t xml:space="preserve">3006|-19105|1508||3213.64|-19445.52|1507.5||3393.64|-19445.52|1507.50||3619.64|-19445.52|1507.50||3870.64|-19445.52|1507.50||4094.64|-19445.52|1507.50||4270.64|-19445.52|1507.50||4505.64|-19445.52|1507.50||4505.64|-19181.52|1507.50||4276.64|-19181.52|1507.50||4081.64|-19181.52|1507.50||3849.64|-19181.52|1507.50||3640.64|-19181.52|1507.50||3420.64|-19181.52|1507.50||3220.64|-19181.52|1507.50||3006.64|-19181.52|1507.50||3006.64|-18867.52|1507.50||3215.64|-18867.52|1507.50||3494.64|-18867.52|1507.50||3702.64|-18867.52|1507.50||3914.64|-18867.52|1507.50||4127.64|-18867.52|1507.50||4326.64|-18867.52|1507.50||4504.64|-18867.52|1507.50||4504.64|-19862.52|1507.50||4242.64|-19862.52|1507.50||4024.64|-19862.52|1507.50||3824.64|-19862.52|1507.50||3592.64|-19862.52|1507.50||3363.64|-19862.52|1507.50||3219.64|-19862.52|1507.50||3061.64|-19862.52|1507.50</t>
   </si>
   <si>
     <t xml:space="preserve">赐福天光</t>
@@ -713,7 +713,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -988,7 +988,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="1" customFormat="true" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="n">
         <v>14</v>
       </c>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -122,7 +122,7 @@
     <t xml:space="preserve">BirthPoint</t>
   </si>
   <si>
-    <t xml:space="preserve">3006|-19105|1508||3213.64|-19445.52|1507.5||3393.64|-19445.52|1507.50||3619.64|-19445.52|1507.50||3870.64|-19445.52|1507.50||4094.64|-19445.52|1507.50||4270.64|-19445.52|1507.50||4505.64|-19445.52|1507.50||4505.64|-19181.52|1507.50||4276.64|-19181.52|1507.50||4081.64|-19181.52|1507.50||3849.64|-19181.52|1507.50||3640.64|-19181.52|1507.50||3420.64|-19181.52|1507.50||3220.64|-19181.52|1507.50||3006.64|-19181.52|1507.50||3006.64|-18867.52|1507.50||3215.64|-18867.52|1507.50||3494.64|-18867.52|1507.50||3702.64|-18867.52|1507.50||3914.64|-18867.52|1507.50||4127.64|-18867.52|1507.50||4326.64|-18867.52|1507.50||4504.64|-18867.52|1507.50||4504.64|-19862.52|1507.50||4242.64|-19862.52|1507.50||4024.64|-19862.52|1507.50||3824.64|-19862.52|1507.50||3592.64|-19862.52|1507.50||3363.64|-19862.52|1507.50||3219.64|-19862.52|1507.50||3061.64|-19862.52|1507.50</t>
+    <t xml:space="preserve">3006|-19105|1508||3213.64|-19445.52|1507.5||3393.64|-19445.52|1507.50||3619.64|-19445.52|1507.50||3870.64|-19445.52|1507.50||4094.64|-19445.52|1507.50||4270.64|-19445.52|1507.50||4505.64|-19445.52|1507.50||4505.64|-19181.52|1507.50||4276.64|-19181.52|1507.50||4081.64|-19181.52|1507.50||3640.64|-19181.52|1507.50||3420.64|-19181.52|1507.50||3220.64|-19181.52|1507.50||3006.64|-19181.52|1507.50||3006.64|-18867.52|1507.50||3215.64|-18867.52|1507.50||3494.64|-18867.52|1507.50||3702.64|-18867.52|1507.50||3914.64|-18867.52|1507.50||4127.64|-18867.52|1507.50||4326.64|-18867.52|1507.50||4504.64|-18867.52|1507.50||4504.64|-19862.52|1507.50||4242.64|-19862.52|1507.50||4024.64|-19862.52|1507.50||3824.64|-19862.52|1507.50||3592.64|-19862.52|1507.50||3363.64|-19862.52|1507.50||3219.64|-19862.52|1507.50||3061.64|-19862.52|1507.50</t>
   </si>
   <si>
     <t xml:space="preserve">赐福天光</t>
@@ -713,7 +713,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -149,19 +149,19 @@
     <t xml:space="preserve">Cowbirth001</t>
   </si>
   <si>
-    <t xml:space="preserve">137194|-55195.01|-1771</t>
+    <t xml:space="preserve">137846|-55615|948</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth002</t>
   </si>
   <si>
-    <t xml:space="preserve">601928.06|598676.88|7547.03</t>
+    <t xml:space="preserve">600673|601971|13095</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth003</t>
   </si>
   <si>
-    <t xml:space="preserve">100459|993107.06|6829.08</t>
+    <t xml:space="preserve">100000|1001757.06|11490</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth004</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">Cowbirth005</t>
   </si>
   <si>
-    <t xml:space="preserve">198270.59|101007.19|627.89</t>
+    <t xml:space="preserve">199679.00|100374.19|401</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth006</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">Cowbirth009</t>
   </si>
   <si>
-    <t xml:space="preserve">800000|0|104</t>
+    <t xml:space="preserve">804285|-1802|191</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth010</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">Cowbirth017</t>
   </si>
   <si>
-    <t xml:space="preserve">299389.4|196987|90.4</t>
+    <t xml:space="preserve">305276|197113|1038</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth018</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">樱花森林</t>
   </si>
   <si>
-    <t xml:space="preserve">绿洲</t>
+    <t xml:space="preserve">糖果天堂</t>
   </si>
   <si>
     <t xml:space="preserve">河畔小巷</t>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t xml:space="preserve">高塔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冒险岛出生点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701524|300346|8381</t>
   </si>
   <si>
     <t xml:space="preserve">MaxLanItemCount</t>
@@ -396,12 +402,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -438,7 +450,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -483,11 +495,35 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -504,6 +540,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -711,9 +807,9 @@
   <dimension ref="A1:G500"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D72" activeCellId="0" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1094,48 +1190,48 @@
         <v/>
       </c>
     </row>
-    <row r="26" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="n">
+    <row r="26" s="13" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="7" t="str">
+      <c r="C26" s="12" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B26,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="n">
+    <row r="27" s="13" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="1" t="str">
+      <c r="C27" s="13" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B27,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="n">
+    <row r="28" s="13" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="1" t="str">
+      <c r="C28" s="13" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B28,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1154,18 +1250,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="n">
+    <row r="30" s="13" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="1" t="str">
+      <c r="C30" s="13" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B30,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1195,7 +1291,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B32,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1366,24 +1462,25 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B46,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="n">
+    <row r="47" s="18" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="11" t="n">
         <v>43</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="1" t="str">
+      <c r="C47" s="13" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B47,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="E47" s="17"/>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="n">
@@ -1396,7 +1493,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B48,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="15" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1411,7 +1508,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B49,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1426,7 +1523,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B50,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="15" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1441,7 +1538,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B51,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="15" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1456,7 +1553,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B52,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1471,24 +1568,25 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B53,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="n">
+    <row r="54" s="18" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11" t="n">
         <v>50</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="1" t="str">
+      <c r="C54" s="13" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B54,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="16" t="s">
         <v>83</v>
       </c>
+      <c r="E54" s="17"/>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="n">
@@ -1501,7 +1599,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B55,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="15" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1516,7 +1614,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B56,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="15" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1531,7 +1629,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B57,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="15" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1546,7 +1644,7 @@
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B58,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="15" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1704,9 +1802,18 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C72" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B72,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4302,10 +4409,10 @@
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="13" t="n">
+      <c r="A1" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="19" t="n">
         <v>2000</v>
       </c>
     </row>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -348,6 +348,54 @@
   </si>
   <si>
     <t xml:space="preserve">701524|300346|8381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘传送门</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700000|402615|1979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天穹之上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700000|498353|770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">林中深处</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701258|703009|832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">龙娘洞窟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">601088|708812|3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木灵宫殿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">507563|599962|76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水之城都</t>
+  </si>
+  <si>
+    <t xml:space="preserve">399854|599086|1080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陵墓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">399727.5|70245|21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">幽灵城</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500000|700300|49</t>
   </si>
   <si>
     <t xml:space="preserve">MaxLanItemCount</t>
@@ -361,7 +409,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -400,6 +448,13 @@
       <name val="微软雅黑"/>
       <family val="0"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -523,8 +578,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -807,9 +862,9 @@
   <dimension ref="A1:G500"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D72" activeCellId="0" sqref="D72"/>
+      <selection pane="bottomLeft" activeCell="C81" activeCellId="0" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1466,7 +1521,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" s="18" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="17" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
         <v>43</v>
       </c>
@@ -1480,7 +1535,6 @@
       <c r="D47" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="17"/>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="n">
@@ -1572,7 +1626,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" s="18" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="17" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="n">
         <v>50</v>
       </c>
@@ -1586,7 +1640,6 @@
       <c r="D54" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="17"/>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="n">
@@ -1802,7 +1855,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="A72" s="2" t="n">
         <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -1817,51 +1870,123 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="C73" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B73,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D73" s="15" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="C74" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B74,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D74" s="15" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="C75" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B75,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D75" s="15" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="C76" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B76,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D76" s="15" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>115</v>
+      </c>
       <c r="C77" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B77,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D77" s="15" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C78" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B78,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D78" s="15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="C79" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B79,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D79" s="15" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="C80" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B80,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4410,7 +4535,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B1" s="19" t="n">
         <v>2000</v>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -396,6 +396,24 @@
   </si>
   <si>
     <t xml:space="preserve">500000|700300|49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">秘密花园</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199959|601763|1331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冒险小镇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198954|500544|59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岩石镇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">699767|604271|142</t>
   </si>
   <si>
     <t xml:space="preserve">MaxLanItemCount</t>
@@ -862,9 +880,9 @@
   <dimension ref="A1:G500"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C81" activeCellId="0" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="D84" activeCellId="0" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1870,7 +1888,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="A73" s="2" t="n">
         <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -1885,7 +1903,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="A74" s="2" t="n">
         <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -1900,7 +1918,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="A75" s="2" t="n">
         <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -1915,7 +1933,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="A76" s="2" t="n">
         <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -1930,7 +1948,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+      <c r="A77" s="2" t="n">
         <v>73</v>
       </c>
       <c r="B77" s="18" t="s">
@@ -1945,7 +1963,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+      <c r="A78" s="2" t="n">
         <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -1960,7 +1978,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="A79" s="2" t="n">
         <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -1975,7 +1993,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="A80" s="2" t="n">
         <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -1990,21 +2008,48 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="C81" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B81,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D81" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="C82" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B82,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D82" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C83" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B83,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4535,7 +4580,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B1" s="19" t="n">
         <v>2000</v>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="134">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -410,10 +410,22 @@
     <t xml:space="preserve">198954|500544|59</t>
   </si>
   <si>
-    <t xml:space="preserve">岩石镇</t>
+    <t xml:space="preserve">岩石神坛</t>
   </si>
   <si>
     <t xml:space="preserve">699767|604271|142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">丰裕岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800376|601970|566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">恶魔城</t>
+  </si>
+  <si>
+    <t xml:space="preserve">795655|700359|882</t>
   </si>
   <si>
     <t xml:space="preserve">MaxLanItemCount</t>
@@ -879,10 +891,10 @@
   </sheetPr>
   <dimension ref="A1:G500"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D84" activeCellId="0" sqref="D84"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D87" activeCellId="0" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2023,7 +2035,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="A82" s="2" t="n">
         <v>78</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -2038,7 +2050,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="A83" s="2" t="n">
         <v>79</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -2053,15 +2065,33 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="C84" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B84,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D84" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>131</v>
+      </c>
       <c r="C85" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B85,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4580,7 +4610,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B1" s="19" t="n">
         <v>2000</v>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -278,7 +278,7 @@
     <t xml:space="preserve">Cowbirth017</t>
   </si>
   <si>
-    <t xml:space="preserve">305276|197113|1038</t>
+    <t xml:space="preserve">305276|197113|1271</t>
   </si>
   <si>
     <t xml:space="preserve">Cowbirth018</t>
@@ -383,43 +383,43 @@
     <t xml:space="preserve">水之城都</t>
   </si>
   <si>
-    <t xml:space="preserve">399854|599086|1080</t>
+    <t xml:space="preserve">399854|599086|1180</t>
   </si>
   <si>
     <t xml:space="preserve">陵墓</t>
   </si>
   <si>
-    <t xml:space="preserve">399727.5|70245|21</t>
+    <t xml:space="preserve">399799|700312|800</t>
   </si>
   <si>
     <t xml:space="preserve">幽灵城</t>
   </si>
   <si>
-    <t xml:space="preserve">500000|700300|49</t>
+    <t xml:space="preserve">500000|700300|250</t>
   </si>
   <si>
     <t xml:space="preserve">秘密花园</t>
   </si>
   <si>
-    <t xml:space="preserve">199959|601763|1331</t>
+    <t xml:space="preserve">199959|601763|1600</t>
   </si>
   <si>
     <t xml:space="preserve">冒险小镇</t>
   </si>
   <si>
-    <t xml:space="preserve">198954|500544|59</t>
+    <t xml:space="preserve">198954|500544|265</t>
   </si>
   <si>
     <t xml:space="preserve">岩石神坛</t>
   </si>
   <si>
-    <t xml:space="preserve">699767|604271|142</t>
+    <t xml:space="preserve">699767|604271|900</t>
   </si>
   <si>
     <t xml:space="preserve">丰裕岛</t>
   </si>
   <si>
-    <t xml:space="preserve">800376|601970|566</t>
+    <t xml:space="preserve">800376|601970|2000</t>
   </si>
   <si>
     <t xml:space="preserve">恶魔城</t>
@@ -891,10 +891,10 @@
   </sheetPr>
   <dimension ref="A1:G500"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D87" activeCellId="0" sqref="D87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D82" activeCellId="0" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2065,7 +2065,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="A84" s="2" t="n">
         <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -2080,7 +2080,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="A85" s="2" t="n">
         <v>81</v>
       </c>
       <c r="B85" s="18" t="s">

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="133">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -339,9 +339,6 @@
   </si>
   <si>
     <t xml:space="preserve">炼狱城堡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">高塔</t>
   </si>
   <si>
     <t xml:space="preserve">冒险岛出生点</t>
@@ -889,12 +886,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G500"/>
+  <dimension ref="A1:G501"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D82" activeCellId="0" sqref="D82"/>
+      <selection pane="bottomLeft" activeCell="B84" activeCellId="0" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1876,318 +1873,370 @@
       <c r="A71" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" s="1" t="str">
-        <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B71,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
-        <v/>
-      </c>
     </row>
     <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C72" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B72,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="C73" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B73,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D73" s="15" t="s">
-        <v>108</v>
-      </c>
+      <c r="D73" s="15"/>
     </row>
     <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C74" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B74,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D74" s="15" t="s">
-        <v>110</v>
-      </c>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="C75" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B75,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D75" s="15" t="s">
-        <v>112</v>
-      </c>
+      <c r="D75" s="15"/>
     </row>
     <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C76" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B76,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D76" s="15" t="s">
-        <v>114</v>
-      </c>
+      <c r="D76" s="15"/>
     </row>
     <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="B77" s="18" t="s">
-        <v>115</v>
-      </c>
       <c r="C77" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B77,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D77" s="15" t="s">
-        <v>116</v>
-      </c>
+      <c r="D77" s="15"/>
     </row>
     <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="B78" s="18"/>
       <c r="C78" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B78,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D78" s="15" t="s">
-        <v>118</v>
-      </c>
+      <c r="D78" s="15"/>
     </row>
     <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C79" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B79,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D79" s="15" t="s">
-        <v>120</v>
-      </c>
+      <c r="D79" s="15"/>
     </row>
     <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C80" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B80,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D80" s="15" t="s">
-        <v>122</v>
-      </c>
+      <c r="D80" s="15"/>
     </row>
     <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C81" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B81,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="D81" s="15"/>
     </row>
     <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C82" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B82,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C83" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B83,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="C84" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B84,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="B85" s="18" t="s">
-        <v>131</v>
-      </c>
       <c r="C85" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B85,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B86" s="18"/>
       <c r="C86" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B86,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="n">
+        <v>83</v>
+      </c>
       <c r="C87" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B87,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="C88" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B88,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D88" s="15" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C89" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B89,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D89" s="15" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="C90" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B90,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D90" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C91" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B91,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D91" s="15" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="C92" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B92,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D92" s="15" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>114</v>
+      </c>
       <c r="C93" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B93,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D93" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="C94" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B94,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D94" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="C95" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B95,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D95" s="15" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="C96" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B96,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D96" s="15" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C97" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B97,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D97" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C98" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B98,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D98" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="C99" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B99,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D99" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C100" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B100,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
+      <c r="D100" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>130</v>
+      </c>
       <c r="C101" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B101,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4581,6 +4630,12 @@
     <row r="500" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C500" s="1" t="str">
         <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B500,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C501" s="1" t="str">
+        <f aca="true">IFERROR(INDEX(OFFSET([1]Sheet1!$D$1,0,0,MaxCount),MATCH($B501,OFFSET([1]Sheet1!$B$1,0,0,MaxCount),0),1),"")</f>
         <v/>
       </c>
     </row>
@@ -4610,7 +4665,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="19" t="n">
         <v>2000</v>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -344,7 +344,7 @@
     <t xml:space="preserve">冒险岛出生点</t>
   </si>
   <si>
-    <t xml:space="preserve">701524|300346|8381</t>
+    <t xml:space="preserve">701524|300346|8708</t>
   </si>
   <si>
     <t xml:space="preserve">神秘传送门</t>
@@ -891,7 +891,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B84" activeCellId="0" sqref="B84"/>
+      <selection pane="bottomLeft" activeCell="D89" activeCellId="0" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -368,7 +368,7 @@
     <t xml:space="preserve">龙娘洞窟</t>
   </si>
   <si>
-    <t xml:space="preserve">601088|708812|3</t>
+    <t xml:space="preserve">601088|708812|250</t>
   </si>
   <si>
     <t xml:space="preserve">木灵宫殿</t>
@@ -889,9 +889,9 @@
   <dimension ref="A1:G501"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D89" activeCellId="0" sqref="D89"/>
+      <selection pane="bottomLeft" activeCell="D98" activeCellId="0" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dragon-verse/Excels/Area_区域表.xlsx
+++ b/dragon-verse/Excels/Area_区域表.xlsx
@@ -122,7 +122,7 @@
     <t xml:space="preserve">BirthPoint</t>
   </si>
   <si>
-    <t xml:space="preserve">3006|-19105|1508||3213.64|-19445.52|1507.5||3393.64|-19445.52|1507.50||3619.64|-19445.52|1507.50||3870.64|-19445.52|1507.50||4094.64|-19445.52|1507.50||4270.64|-19445.52|1507.50||4505.64|-19445.52|1507.50||4505.64|-19181.52|1507.50||4276.64|-19181.52|1507.50||4081.64|-19181.52|1507.50||3640.64|-19181.52|1507.50||3420.64|-19181.52|1507.50||3220.64|-19181.52|1507.50||3006.64|-19181.52|1507.50||3006.64|-18867.52|1507.50||3215.64|-18867.52|1507.50||3494.64|-18867.52|1507.50||3702.64|-18867.52|1507.50||3914.64|-18867.52|1507.50||4127.64|-18867.52|1507.50||4326.64|-18867.52|1507.50||4504.64|-18867.52|1507.50||4504.64|-19862.52|1507.50||4242.64|-19862.52|1507.50||4024.64|-19862.52|1507.50||3824.64|-19862.52|1507.50||3592.64|-19862.52|1507.50||3363.64|-19862.52|1507.50||3219.64|-19862.52|1507.50||3061.64|-19862.52|1507.50</t>
+    <t xml:space="preserve">-3076|-6842|1085.5||-2869.36|-6841.52|1085.5||-2689.36|-6841.52|1085.5||-2463.36|-6841.52|1085.5||-2216.36|-6841.52|1085.5||-1988.36|-6841.52|1085.5||-1812.36|-6841.52|1085.5||-1577.36|-6841.52|1085.5||-1577.36|-6577.52|1085.50||-1806.36|-6577.52|1085.50||-2001.36|-65577.52|1085.50||-2233.36|-6577.52|1085.50||-2442.36|-6577.52|1085.50||-2662.36|-6577.52|1085.50||-2862.36|-6577.52|1085.50||-3076.36|-6577.52|1085.50||-3076.36|-6263.52|1085.50||-2867.36|-6263.52|1085.50||-2588.36|-6263.52|1085.50||-2380.36|-6263.52|1085.50||-2168.36|-6263.52|1085.50||-1955.36|-6263.52|1085.50||-1756.36|-6263.52|1085.50||-1578.36|-6263.52|1085.50||-1578.36|-7258.52|1085.50||-1840.36|-7258.52|1085.50||-2058.36|-7258.52|1085.50||-2258.36|-7258.52|1085.50||-2490.36|-7258.52|1085.50||-2719.36|-7258.52|1085.50||-2863.36|-7258.52|1085.50||-3021.36|-7258.52|1085.50</t>
   </si>
   <si>
     <t xml:space="preserve">赐福天光</t>
@@ -889,9 +889,9 @@
   <dimension ref="A1:G501"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D98" activeCellId="0" sqref="D98"/>
+      <selection pane="bottomLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
